--- a/public/ex.xlsx
+++ b/public/ex.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\code\excel\xs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E871E1-C9F5-459D-8B76-F9A8A4FFE158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2638E5E9-C816-485E-9027-F25149B73DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="2865" windowWidth="18675" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="2145" windowWidth="18675" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1265,48 +1265,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1625,10 +1625,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1659,7 +1659,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1687,8 +1687,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1701,8 +1701,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1713,8 +1713,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1725,8 +1725,8 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1739,8 +1739,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1751,8 +1751,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1763,8 +1763,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1789,30 +1789,30 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1823,8 +1823,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +1835,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1849,8 +1849,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1919,7 +1919,7 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1975,8 +1975,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1989,8 +1989,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2015,51 +2015,56 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A2:A21"/>
@@ -2072,11 +2077,6 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2210,8 +2210,8 @@
       <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -2219,8 +2219,8 @@
         <v>23</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>

--- a/public/ex.xlsx
+++ b/public/ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\code\excel\xs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2638E5E9-C816-485E-9027-F25149B73DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63350565-8FE9-4470-A655-F8EE94BB77E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2145" windowWidth="18675" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,6 +1265,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,15 +1297,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,21 +1307,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,22 +1613,24 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1645,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1659,7 +1661,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1675,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1687,8 +1689,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1701,8 +1703,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1713,8 +1715,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1725,8 +1727,8 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1739,8 +1741,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1751,8 +1753,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1763,8 +1765,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1775,8 +1777,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1789,30 +1791,30 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1823,8 +1825,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +1837,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1849,8 +1851,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1861,7 +1863,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1875,7 +1877,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1891,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1903,7 +1905,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1919,7 +1921,7 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1935,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +1949,7 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1961,7 +1963,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1975,8 +1977,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1989,8 +1991,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2001,7 +2003,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2015,56 +2017,51 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A2:A21"/>
@@ -2077,6 +2074,11 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2210,8 +2212,8 @@
       <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -2219,8 +2221,8 @@
         <v>23</v>
       </c>
       <c r="C10" s="33"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
